--- a/Week 8/ProductBacklog (Version 0.5).xlsx
+++ b/Week 8/ProductBacklog (Version 0.5).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaWeb\swp391-onlineshop-gr1\Week 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1448,8 +1448,8 @@
       <c r="G16" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>75</v>
+      <c r="H16" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="I16" s="15"/>
     </row>
@@ -1556,8 +1556,8 @@
       <c r="G20" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>75</v>
+      <c r="H20" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="I20" s="15"/>
     </row>
@@ -1583,8 +1583,8 @@
       <c r="G21" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>75</v>
+      <c r="H21" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="I21" s="15"/>
     </row>
